--- a/x0000001_HiSLIP 通信プロトコルの概要と仕組み/305_Table 4_Message_Type_Value_Definitions.xlsx
+++ b/x0000001_HiSLIP 通信プロトコルの概要と仕組み/305_Table 4_Message_Type_Value_Definitions.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\x0000001_HiSLIP 通信プロトコルの概要と仕組み\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237051D7-6898-4120-81A4-7B8A0D0EDD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA258EE0-0A16-452A-87B5-EE6863CB4603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="40905" yWindow="3540" windowWidth="23865" windowHeight="16455" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$2:$K$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="85">
   <si>
     <t>Channel</t>
   </si>
@@ -299,6 +300,17 @@
   </si>
   <si>
     <t>SC</t>
+  </si>
+  <si>
+    <t>同期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両方</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -691,7 +703,9 @@
   </sheetPr>
   <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -799,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -828,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -915,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -944,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
@@ -973,7 +987,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
@@ -1089,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
@@ -1118,7 +1132,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2">
         <v>13</v>
@@ -1495,7 +1509,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2">
         <v>26</v>
@@ -1521,7 +1535,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2">
         <v>27</v>
@@ -1547,7 +1561,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2">
         <v>28</v>
@@ -1573,7 +1587,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D32" s="2">
         <v>29</v>
@@ -1599,7 +1613,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2">
         <v>30</v>
@@ -1625,7 +1639,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2">
         <v>31</v>
@@ -1651,7 +1665,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2">
         <v>32</v>
@@ -1677,7 +1691,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D36" s="2">
         <v>33</v>
@@ -1703,7 +1717,7 @@
         <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2">
         <v>34</v>
@@ -1729,7 +1743,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2">
         <v>35</v>
@@ -1755,7 +1769,7 @@
         <v>72</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2">
         <v>36</v>
@@ -1781,7 +1795,7 @@
         <v>73</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D40" s="2">
         <v>37</v>
@@ -1807,7 +1821,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D41" s="2">
         <v>38</v>
@@ -1841,20 +1855,22 @@
       <c r="G42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>77</v>
       </c>
@@ -1876,6 +1892,7 @@
       <c r="K43" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="G2:K43" xr:uid="{BBD7E998-E50A-4CAF-B8BD-C77C96FFCF26}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
